--- a/Others/Adding new retailers format.xlsx
+++ b/Others/Adding new retailers format.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3498C7-3361-43A3-8213-38ECD995C174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Retailers Format" sheetId="1" r:id="rId1"/>
     <sheet name="Inactivating Retailers Format" sheetId="2" r:id="rId2"/>
     <sheet name="Re-mapping Format" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>RType</t>
   </si>
@@ -96,9 +105,6 @@
     <t>ZSO-ID</t>
   </si>
   <si>
-    <t>DEL-0157</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -108,16 +114,13 @@
     <t>GO</t>
   </si>
   <si>
-    <t>Pabna</t>
-  </si>
-  <si>
     <t>ZSO-0022</t>
   </si>
   <si>
     <t>Semi-Urban</t>
   </si>
   <si>
-    <t>DSR-0156</t>
+    <t>bkash</t>
   </si>
   <si>
     <t xml:space="preserve">RetailerID </t>
@@ -129,12 +132,6 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>DSR-0158</t>
-  </si>
-  <si>
-    <t>PABNA</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -144,41 +141,149 @@
     <t>BKASH</t>
   </si>
   <si>
-    <t>DEL0157</t>
-  </si>
-  <si>
-    <t>DSR-0155</t>
-  </si>
-  <si>
-    <t>pabna</t>
-  </si>
-  <si>
-    <t>DSR-0159</t>
-  </si>
-  <si>
-    <t>Atghoriya</t>
-  </si>
-  <si>
-    <t>Bkash</t>
-  </si>
-  <si>
-    <t>Maghna Consumer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagchipaza </t>
-  </si>
-  <si>
-    <t>Qayum</t>
-  </si>
-  <si>
-    <t>Bagchipara super market</t>
+    <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>Natore</t>
+  </si>
+  <si>
+    <t>Mollah Mobile &amp; Electronics</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>Md Monjur Hosen</t>
+  </si>
+  <si>
+    <t>B &amp; F Electronics</t>
+  </si>
+  <si>
+    <t> Chanchkoir Bazar</t>
+  </si>
+  <si>
+    <t>A.K Azad Pintu</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
+  </si>
+  <si>
+    <t>CM Shopping Complex , Chanchkoir</t>
+  </si>
+  <si>
+    <t>Brothers Mobile Palace</t>
+  </si>
+  <si>
+    <t>Md Anwar Hossain</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t> Chanchkoir</t>
+  </si>
+  <si>
+    <t>hgfhj</t>
+  </si>
+  <si>
+    <t>ghjkl</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>DSR-0248</t>
+  </si>
+  <si>
+    <t>Singra Pouroshova</t>
+  </si>
+  <si>
+    <t>Emon Ali Shahin</t>
+  </si>
+  <si>
+    <t>Khajurtola,Singra</t>
+  </si>
+  <si>
+    <t>Shekh Electronics &amp; Varieteis Store</t>
+  </si>
+  <si>
+    <t>Mim Mahim Mobile Center</t>
+  </si>
+  <si>
+    <t>Jonail</t>
+  </si>
+  <si>
+    <t>Md Sujon Ali</t>
+  </si>
+  <si>
+    <t>Boraigram</t>
+  </si>
+  <si>
+    <t>Jonail Pagla Bazar,Mohila Collage Road</t>
+  </si>
+  <si>
+    <t>S.N</t>
+  </si>
+  <si>
+    <t>DSR-0246</t>
+  </si>
+  <si>
+    <t>Saju Telecom</t>
+  </si>
+  <si>
+    <t>Natore Sodor</t>
+  </si>
+  <si>
+    <t>Md Saju</t>
+  </si>
+  <si>
+    <t>Saju</t>
+  </si>
+  <si>
+    <t>Millat Market, Madrasha More</t>
+  </si>
+  <si>
+    <t>Nabila Telecom</t>
+  </si>
+  <si>
+    <t>Mamunor-Rashid Babu</t>
+  </si>
+  <si>
+    <t>Mondol Mobile Center</t>
+  </si>
+  <si>
+    <t>Ajijul Mondol</t>
+  </si>
+  <si>
+    <t>Central Mosjid Market</t>
+  </si>
+  <si>
+    <t>T M Electronics &amp; Mobile Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chanchkoir </t>
+  </si>
+  <si>
+    <t>T M Mokhidul Islam</t>
+  </si>
+  <si>
+    <t>Mokhura Bazar</t>
+  </si>
+  <si>
+    <t>Raihan Rony</t>
+  </si>
+  <si>
+    <t>RR Mobile Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chanchkoir </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +313,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +333,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,17 +370,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -274,17 +380,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,11 +406,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +522,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +574,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,623 +767,948 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1777033379</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12">
+        <v>1777033379</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="12">
+        <v>1777033379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1712206639</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
+        <v>1712206639</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1712206639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1704361551</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>1704361551</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="S4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1704361551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1712481870</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>1712481870</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1712481870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1712192700</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
+        <v>1712192700</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1712192700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1786855252</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>1786855252</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1786855252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1722587953</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1759822220</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="O8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12">
+        <v>1722587953</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="T8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1722587953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1400436223</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
+        <v>1400436223</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="12">
+        <v>1400436223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1717661356</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12">
+        <v>1717661356</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1717661356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1727474835</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="18">
+        <v>1727474835</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5">
-        <v>1759822220</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1797488499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="5"/>
+      <c r="U11" s="18">
+        <v>1705483675</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:U11">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="6" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1238,50 +1716,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,6 +1863,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
